--- a/sample invoice.xlsx
+++ b/sample invoice.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28790" windowHeight="11870"/>
+    <workbookView windowWidth="28790" windowHeight="12590"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">INVOICE </t>
   </si>
@@ -124,6 +124,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Contact Person: </t>
     </r>
     <r>
@@ -133,15 +140,22 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>{Contact person}</t>
+      <t xml:space="preserve"> {Contact person}</t>
     </r>
   </si>
   <si>
-    <t>Purchase Order No:{PO NUMBER}  &amp; Date:, Dated: {date}</t>
+    <t>Purchase Order No:  {PO no}   &amp;  Date:, Dated: {PO date}</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Email ID: </t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Email ID:  </t>
     </r>
     <r>
       <rPr>
@@ -158,7 +172,14 @@
   </si>
   <si>
     <r>
-      <t>Mobile:</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Mobile:  </t>
     </r>
     <r>
       <rPr>
@@ -210,13 +231,10 @@
     <t>{amount 1}</t>
   </si>
   <si>
-    <t>Product Code: {product code 1}    HSN Code: {hsn code 1}</t>
-  </si>
-  <si>
     <t>Remarks:</t>
   </si>
   <si>
-    <t>{remarks}</t>
+    <t>NA</t>
   </si>
   <si>
     <t xml:space="preserve">SUB -TOTAL  </t>
@@ -279,7 +297,7 @@
     <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +388,6 @@
       <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -910,9 +921,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -932,13 +941,26 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -960,20 +982,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1000,7 +1015,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1156,139 +1173,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1296,7 +1313,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,9 +1355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1412,45 +1426,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1466,10 +1452,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1485,10 +1467,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1552,17 +1530,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1570,48 +1545,42 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1623,29 +1592,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1657,7 +1627,7 @@
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1985,13 +1955,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G47"/>
+  <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="55" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10909090909091" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.10909090909091" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.33636363636364" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5545454545455" style="1" customWidth="1"/>
@@ -2032,12 +2002,11 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="10"/>
@@ -2046,454 +2015,451 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>1711001163</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" ht="26" spans="2:7">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="42"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="43"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="43"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:7">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:7">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="59" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="62" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" ht="13.05" customHeight="1" spans="2:7">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73" t="s">
+    <row r="24" ht="13.05" customHeight="1" spans="2:8">
+      <c r="B24" s="61"/>
+      <c r="C24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="76">
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="66">
         <v>1</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="69" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83" t="s">
+      <c r="H25" s="65"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="88" t="s">
+      <c r="C27" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="76"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="93"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="88"/>
-      <c r="C29" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="95"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="96"/>
-      <c r="C30" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="92" t="s">
+      <c r="B30" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="95"/>
+      <c r="C30" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="92" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="95"/>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="96"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>58</v>
+      </c>
       <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="99"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="92"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="101" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="94"/>
+    </row>
+    <row r="34" ht="15.5" spans="2:7">
+      <c r="B34" s="84"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="108"/>
-    </row>
-    <row r="35" ht="15.5" spans="2:7">
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="109" t="s">
+      <c r="F34" s="96"/>
+      <c r="G34" s="94"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="84"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="94"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="84"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="94"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="84"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="94"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="108"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="108"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="108"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="105"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="108"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="111" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="94"/>
+    </row>
+    <row r="39" ht="15.5" spans="2:7">
+      <c r="B39" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
-    </row>
-    <row r="40" ht="15.5" spans="2:7">
-      <c r="B40" s="111" t="s">
+      <c r="C39" s="98"/>
+      <c r="D39" s="78"/>
+      <c r="F39" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="113" t="s">
+      <c r="G39" s="100"/>
+    </row>
+    <row r="40" ht="14.75" spans="2:7">
+      <c r="B40" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="113"/>
-      <c r="G40" s="114"/>
-    </row>
-    <row r="41" ht="14.75" spans="2:7">
-      <c r="B41" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="118"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="104"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+    </row>
+    <row r="42" ht="15.25" spans="7:7">
+      <c r="G42" s="105"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="119"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
@@ -2504,19 +2470,13 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C32:C36"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="55" orientation="portrait"/>

--- a/sample invoice.xlsx
+++ b/sample invoice.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t xml:space="preserve">INVOICE </t>
   </si>
@@ -216,25 +216,10 @@
     <t>HSN code /Batch Details</t>
   </si>
   <si>
-    <t>{product 1}</t>
-  </si>
-  <si>
-    <t>{UOM 1}</t>
-  </si>
-  <si>
-    <t>{qty 1}</t>
-  </si>
-  <si>
-    <t>{rate 1}</t>
-  </si>
-  <si>
-    <t>{amount 1}</t>
-  </si>
-  <si>
     <t>Remarks:</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>{remarks}</t>
   </si>
   <si>
     <t xml:space="preserve">SUB -TOTAL  </t>
@@ -789,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -923,69 +908,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1179,7 +1101,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,34 +1113,34 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1313,7 +1235,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,33 +1451,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1565,19 +1460,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1592,7 +1487,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1608,11 +1502,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1955,10 +1849,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H46"/>
+  <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="55" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C36"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10909090909091" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2254,212 +2148,188 @@
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="66">
-        <v>1</v>
-      </c>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="G25" s="70"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G26" s="72"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="73"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="76" t="s">
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C28" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="65"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="76"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80" t="s">
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="73"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="65"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="84"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="80" t="s">
+      <c r="G29" s="77"/>
+    </row>
+    <row r="30" ht="14" customHeight="1" spans="2:7">
+      <c r="B30" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="85"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="76" t="s">
+      <c r="C30" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="73"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="82"/>
+    </row>
+    <row r="32" ht="15.5" spans="2:7">
+      <c r="B32" s="73"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="80" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="82"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="73"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="82"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="73"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="82"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="73"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="82"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="85"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="84"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="87" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="82"/>
+    </row>
+    <row r="37" ht="15.5" spans="2:7">
+      <c r="B37" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="88"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="76" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="67"/>
+      <c r="F37" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="G37" s="88"/>
+    </row>
+    <row r="38" ht="15.25" spans="2:7">
+      <c r="B38" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="92"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="84"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="94"/>
-    </row>
-    <row r="34" ht="15.5" spans="2:7">
-      <c r="B34" s="84"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="94"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="84"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="94"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="84"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="94"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="84"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="94"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="94"/>
-    </row>
-    <row r="39" ht="15.5" spans="2:7">
-      <c r="B39" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="78"/>
-      <c r="F39" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" ht="14.75" spans="2:7">
-      <c r="B40" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="104"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-    </row>
-    <row r="42" ht="15.25" spans="7:7">
-      <c r="G42" s="105"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="106"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="106"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="93"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="93"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="93"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="94"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
@@ -2470,9 +2340,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C32:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
